--- a/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\2022_ANL201_Viz_Biz\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06DBED7C-2894-4A04-924B-A47A1ECAA5E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECD450-29A5-4895-9238-6B5879F7F843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students-ANL201_JAN22_T04" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Student</t>
   </si>
@@ -329,12 +329,18 @@
   </si>
   <si>
     <t>(Admin) Group Leaders</t>
+  </si>
+  <si>
+    <t>CHUA SIEW HUI REGINA</t>
+  </si>
+  <si>
+    <t>reginachua002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -795,19 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1017,17 +1010,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,13 +1032,13 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,12 +1048,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,11 +1404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,21 +2079,21 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="7">
         <v>33977</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="10">
@@ -2112,12 +2102,12 @@
       <c r="C49" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B50" s="10">
@@ -2126,16 +2116,31 @@
       <c r="C50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="13">
+        <v>86932</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\2022_ANL201_Viz_Biz\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECD450-29A5-4895-9238-6B5879F7F843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBBFEE8-4B67-4F61-AA81-0BA3741AFB2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students-ANL201_JAN22_T04" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Student</t>
   </si>
@@ -106,12 +106,6 @@
     <t>zeniang001</t>
   </si>
   <si>
-    <t>NURUL SYAZWANI BINTE ZAIFUL ZAHRI</t>
-  </si>
-  <si>
-    <t>nurulsyazwani001</t>
-  </si>
-  <si>
     <t>LIM SHI YAO</t>
   </si>
   <si>
@@ -335,6 +329,12 @@
   </si>
   <si>
     <t>reginachua002</t>
+  </si>
+  <si>
+    <t>Response from Leader</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -961,6 +961,84 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1010,7 +1088,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1048,6 +1126,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1405,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,10 +1514,11 @@
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1433,8 +1531,11 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1447,8 +1548,11 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1462,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1503,8 +1607,11 @@
       <c r="D6" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1532,7 +1639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1546,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1559,8 +1666,11 @@
       <c r="D10" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1574,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1588,96 +1698,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="17">
         <v>76631</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7">
-        <v>43478</v>
+        <v>59797</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="10">
         <v>41438</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="10">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="13">
         <v>42510</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="13">
-        <v>59797</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="20">
+        <v>84824</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="D17" s="21">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="7">
-        <v>84824</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="10">
+        <v>76085</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="10">
-        <v>76085</v>
+        <v>43935</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>39</v>
@@ -1686,54 +1802,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="10">
-        <v>43935</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="13">
+        <v>4961</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="13">
-        <v>4961</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="7">
+        <v>55271</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="7">
-        <v>55271</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="10">
+        <v>54309</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="10">
-        <v>54309</v>
+        <v>86070</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>47</v>
@@ -1742,54 +1858,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="10">
-        <v>86070</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="13">
+        <v>86324</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="13">
-        <v>86324</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="7">
+        <v>42471</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="D25" s="8">
+        <v>7</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="7">
-        <v>42471</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="10">
+        <v>54033</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="10">
-        <v>54033</v>
+        <v>68079</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>55</v>
@@ -1798,54 +1917,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="10">
-        <v>68079</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="13">
+        <v>54763</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="13">
-        <v>54763</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="7">
+        <v>41781</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="D29" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="7">
-        <v>41781</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="10">
+        <v>77411</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="10">
-        <v>77411</v>
+        <v>74675</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>63</v>
@@ -1854,54 +1973,57 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="10">
-        <v>74675</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="13">
+        <v>75048</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="13">
-        <v>75048</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="7">
+        <v>82613</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="D33" s="8">
+        <v>9</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="7">
-        <v>82613</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="10">
+        <v>65843</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="10">
-        <v>65843</v>
+        <v>53769</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>71</v>
@@ -1910,54 +2032,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="10">
-        <v>53769</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="13">
+        <v>41771</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="13">
-        <v>41771</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="7">
+        <v>77163</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="D37" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="7">
-        <v>77163</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="10">
+        <v>42813</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B39" s="10">
-        <v>42813</v>
+        <v>65608</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>79</v>
@@ -1966,129 +2088,132 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="10">
-        <v>65608</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="13">
+        <v>74621</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="13">
-        <v>74621</v>
-      </c>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="7">
+        <v>42985</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="D41" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="7">
-        <v>42985</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="10">
+        <v>48817</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="10">
-        <v>48817</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="13">
+        <v>62029</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="13">
-        <v>62029</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="7">
+        <v>67694</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="D44" s="8">
+        <v>12</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="7">
-        <v>67694</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="10">
+        <v>65473</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="10">
-        <v>65473</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="13">
+        <v>67750</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="13">
-        <v>67750</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="B47" s="7">
+        <v>33977</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="D47" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="7">
-        <v>33977</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="10">
+        <v>54363</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="11">
         <v>13</v>
       </c>
     </row>
@@ -2097,7 +2222,7 @@
         <v>98</v>
       </c>
       <c r="B49" s="10">
-        <v>54363</v>
+        <v>49138</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>99</v>
@@ -2106,37 +2231,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="13">
+        <v>86932</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="10">
-        <v>49138</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="13">
-        <v>86932</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\2022_ANL201_Viz_Biz\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBBFEE8-4B67-4F61-AA81-0BA3741AFB2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F4F8B-E82E-4C3D-909F-CEB0C483F0E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>Student</t>
   </si>
@@ -335,13 +335,16 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Participation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +479,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1088,7 +1099,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1128,7 +1139,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,6 +1155,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,11 +1530,12 @@
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1531,11 +1548,14 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1548,11 +1568,11 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1566,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1594,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1607,11 +1627,11 @@
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1625,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1639,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1653,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1666,11 +1686,11 @@
       <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1698,21 +1718,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>76631</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1725,11 +1745,11 @@
       <c r="D14" s="8">
         <v>4</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +1763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1757,24 +1777,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>84824</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>5</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>36</v>
       </c>
@@ -1788,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1802,7 +1825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
@@ -1816,7 +1839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -1830,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -1844,7 +1867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>46</v>
       </c>
@@ -1858,7 +1881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
@@ -1872,7 +1895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
@@ -1885,11 +1908,14 @@
       <c r="D25" s="8">
         <v>7</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
@@ -1903,7 +1929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
@@ -1917,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>56</v>
       </c>
@@ -1931,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>58</v>
       </c>
@@ -1945,7 +1971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>60</v>
       </c>
@@ -1959,7 +1985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
@@ -1973,7 +1999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
@@ -2000,7 +2026,7 @@
       <c r="D33" s="8">
         <v>9</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="21" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2115,6 +2141,9 @@
       <c r="D41" s="8">
         <v>11</v>
       </c>
+      <c r="E41" s="21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -2157,7 +2186,7 @@
       <c r="D44" s="8">
         <v>12</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="21" t="s">
         <v>104</v>
       </c>
     </row>

--- a/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\2022_ANL201_Viz_Biz\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F4F8B-E82E-4C3D-909F-CEB0C483F0E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294A4DDA-2331-4B20-892E-EABB1D53DCFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>Student</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Participation</t>
+  </si>
+  <si>
+    <t>No response from this guy</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,86 +1829,93 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="16">
         <v>4961</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B21" s="7">
-        <v>55271</v>
+        <v>86324</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D21" s="8">
         <v>6</v>
       </c>
+      <c r="E21" s="21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="10">
-        <v>54309</v>
+        <v>55271</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="11">
         <v>6</v>
       </c>
+      <c r="E22" s="21" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="10">
-        <v>86070</v>
+        <v>54309</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="11">
         <v>6</v>
       </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="13">
-        <v>86324</v>
+        <v>86070</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="19">
         <v>42471</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="20">
         <v>7</v>
       </c>
       <c r="E25" s="21" t="s">
@@ -1970,6 +1980,9 @@
       <c r="D29" s="8">
         <v>8</v>
       </c>
+      <c r="E29" s="21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -2230,6 +2243,9 @@
       </c>
       <c r="D47" s="8">
         <v>13</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">

--- a/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\2022_ANL201_Viz_Biz\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294A4DDA-2331-4B20-892E-EABB1D53DCFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011C8973-602B-4852-925C-247929A9231D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="240" windowWidth="22935" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students-ANL201_JAN22_T04" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
     <t>Student</t>
   </si>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,6 +2098,9 @@
       <c r="D37" s="8">
         <v>10</v>
       </c>
+      <c r="E37" s="21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">

--- a/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\2022_ANL201_Viz_Biz\1_Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_ANL201_Viz_Biz\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECD450-29A5-4895-9238-6B5879F7F843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Students-ANL201_JAN22_T04" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>Student</t>
   </si>
@@ -106,12 +105,6 @@
     <t>zeniang001</t>
   </si>
   <si>
-    <t>NURUL SYAZWANI BINTE ZAIFUL ZAHRI</t>
-  </si>
-  <si>
-    <t>nurulsyazwani001</t>
-  </si>
-  <si>
     <t>LIM SHI YAO</t>
   </si>
   <si>
@@ -335,13 +328,22 @@
   </si>
   <si>
     <t>reginachua002</t>
+  </si>
+  <si>
+    <t>Response from Leader</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Participation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +478,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -670,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -961,6 +971,84 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1010,7 +1098,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1048,6 +1136,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1404,11 +1516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,10 +1529,12 @@
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1433,8 +1547,14 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1447,8 +1567,11 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1462,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1503,8 +1626,11 @@
       <c r="D6" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1532,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1546,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1559,8 +1685,11 @@
       <c r="D10" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1574,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1588,96 +1717,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="16">
         <v>76631</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7">
-        <v>43478</v>
+        <v>59797</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="10">
         <v>41438</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="10">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="13">
         <v>42510</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="13">
-        <v>59797</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="19">
+        <v>84824</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="D17" s="20">
+        <v>5</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="7">
-        <v>84824</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="10">
+        <v>76085</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="10">
-        <v>76085</v>
+        <v>43935</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>39</v>
@@ -1686,110 +1824,120 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="10">
-        <v>43935</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="16">
+        <v>4961</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="7">
+        <v>86324</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="13">
-        <v>4961</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B22" s="10">
+        <v>55271</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D22" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="7">
-        <v>55271</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B23" s="10">
         <v>54309</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="13">
         <v>86070</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="13">
-        <v>86324</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="19">
+        <v>42471</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="D25" s="20">
+        <v>7</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="7">
-        <v>42471</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="10">
+        <v>54033</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="10">
-        <v>54033</v>
+        <v>68079</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>55</v>
@@ -1798,54 +1946,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="10">
-        <v>68079</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="13">
+        <v>54763</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="13">
-        <v>54763</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="7">
+        <v>41781</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="D29" s="8">
+        <v>8</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="7">
-        <v>41781</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="10">
+        <v>77411</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="10">
-        <v>77411</v>
+        <v>74675</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>63</v>
@@ -1854,54 +2005,57 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="10">
-        <v>74675</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="13">
+        <v>75048</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="13">
-        <v>75048</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="7">
+        <v>82613</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="D33" s="8">
+        <v>9</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="7">
-        <v>82613</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="10">
+        <v>65843</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="10">
-        <v>65843</v>
+        <v>53769</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>71</v>
@@ -1910,54 +2064,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="10">
-        <v>53769</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="13">
+        <v>41771</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="13">
-        <v>41771</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="7">
+        <v>77163</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="D37" s="8">
+        <v>10</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="7">
-        <v>77163</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="10">
+        <v>42813</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B39" s="10">
-        <v>42813</v>
+        <v>65608</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>79</v>
@@ -1966,129 +2126,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="10">
-        <v>65608</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="13">
+        <v>74621</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="13">
-        <v>74621</v>
-      </c>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="7">
+        <v>42985</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="D41" s="8">
+        <v>11</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="7">
-        <v>42985</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="10">
+        <v>48817</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="10">
-        <v>48817</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="13">
+        <v>62029</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="13">
-        <v>62029</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="7">
+        <v>67694</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="D44" s="8">
+        <v>12</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="7">
-        <v>67694</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="10">
+        <v>65473</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="10">
-        <v>65473</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="13">
+        <v>67750</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="13">
-        <v>67750</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="B47" s="7">
+        <v>33977</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="D47" s="8">
+        <v>13</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="7">
-        <v>33977</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="10">
+        <v>54363</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="11">
         <v>13</v>
       </c>
     </row>
@@ -2097,7 +2269,7 @@
         <v>98</v>
       </c>
       <c r="B49" s="10">
-        <v>54363</v>
+        <v>49138</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>99</v>
@@ -2106,37 +2278,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="13">
+        <v>86932</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="10">
-        <v>49138</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="13">
-        <v>86932</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t>Student</t>
   </si>
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,6 +1570,9 @@
       <c r="E2" s="21" t="s">
         <v>104</v>
       </c>
+      <c r="F2" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2247,6 +2250,9 @@
         <v>13</v>
       </c>
       <c r="E47" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="22" t="s">
         <v>104</v>
       </c>
     </row>

--- a/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\2022_ANL201_Viz_Biz\1_Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_ANL201_Viz_Biz\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011C8973-602B-4852-925C-247929A9231D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="240" windowWidth="22935" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="240" windowWidth="22935" windowHeight="14550"/>
   </bookViews>
   <sheets>
     <sheet name="Students-ANL201_JAN22_T04" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
   <si>
     <t>Student</t>
   </si>
@@ -341,12 +340,15 @@
   </si>
   <si>
     <t>No response from this guy</t>
+  </si>
+  <si>
+    <t>GG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1520,11 +1522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,8 +1535,8 @@
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="22" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1983,6 +1985,9 @@
       <c r="E29" s="21" t="s">
         <v>104</v>
       </c>
+      <c r="F29" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -2026,7 +2031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>66</v>
       </c>
@@ -2043,7 +2048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -2057,7 +2062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>70</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>74</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>76</v>
       </c>
@@ -2115,8 +2120,11 @@
       <c r="D38" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>78</v>
       </c>
@@ -2130,7 +2138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>80</v>
       </c>
@@ -2144,7 +2152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>82</v>
       </c>
@@ -2161,7 +2169,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>84</v>
       </c>
@@ -2175,7 +2183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>86</v>
       </c>
@@ -2189,7 +2197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>88</v>
       </c>
@@ -2206,7 +2214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>90</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>92</v>
       </c>
@@ -2234,7 +2242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>94</v>
       </c>
@@ -2250,8 +2258,11 @@
       <c r="E47" s="21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>96</v>
       </c>

--- a/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/1_Admin/Students-ANL201_JAN22_T04.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Students-ANL201_JAN22_T04" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Students-ANL201_JAN22_T04'!$A$1:$G$50</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -342,14 +345,14 @@
     <t>No response from this guy</t>
   </si>
   <si>
-    <t>GG</t>
+    <t>Sem 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +495,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1104,7 +1139,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1153,19 +1188,191 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,12 +1742,13 @@
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="24.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="19" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1553,59 +1761,72 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="76">
         <v>53821</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="77">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="G2" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="29">
         <v>67693</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="19"/>
+      <c r="G3" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="66">
         <v>53890</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="67">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1618,8 +1839,11 @@
       <c r="D5" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1632,129 +1856,156 @@
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="50">
         <v>49608</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="51">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="G7" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="66">
         <v>85658</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="67">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="G8" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="69">
         <v>53508</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="70">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="76">
         <v>68397</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="77">
         <v>3</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="G10" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="73">
         <v>68299</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="74">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="G11" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="50">
         <v>67818</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="51">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="G12" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="79">
         <v>76631</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="80">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="56">
         <v>59797</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="57">
         <v>4</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -1767,8 +2018,11 @@
       <c r="D15" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1781,42 +2035,51 @@
       <c r="D16" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="47">
         <v>84824</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="48">
         <v>5</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="42" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="G17" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="73">
         <v>76085</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="74">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1829,8 +2092,11 @@
       <c r="D19" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
@@ -1843,25 +2109,31 @@
       <c r="D20" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="62">
         <v>86324</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="8">
-        <v>6</v>
-      </c>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="63">
+        <v>6</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1874,26 +2146,32 @@
       <c r="D22" s="11">
         <v>6</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="25">
         <v>54309</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="11">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="26">
+        <v>6</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="G23" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -1906,90 +2184,110 @@
       <c r="D24" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="G24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="35">
         <v>42471</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="36">
         <v>7</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="37" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="G25" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="44">
         <v>54033</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="66">
         <v>68079</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="67">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="G27" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="59">
         <v>54763</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="60">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="G28" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="39">
         <v>41781</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="40">
         <v>8</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>60</v>
       </c>
@@ -2002,8 +2300,11 @@
       <c r="D30" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
@@ -2016,8 +2317,11 @@
       <c r="D31" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
@@ -2030,22 +2334,28 @@
       <c r="D32" s="14">
         <v>8</v>
       </c>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="39">
         <v>82613</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="40">
         <v>9</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="19" t="s">
         <v>104</v>
+      </c>
+      <c r="G33" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2061,6 +2371,9 @@
       <c r="D34" s="11">
         <v>9</v>
       </c>
+      <c r="G34" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -2075,53 +2388,64 @@
       <c r="D35" s="11">
         <v>9</v>
       </c>
+      <c r="G35" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="21">
         <v>41771</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="22">
         <v>9</v>
       </c>
+      <c r="G36" s="18">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="62">
         <v>77163</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="63">
         <v>10</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="18" t="s">
         <v>104</v>
       </c>
+      <c r="G37" s="64">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="44">
         <v>42813</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="45">
         <v>10</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>107</v>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2137,19 +2461,25 @@
       <c r="D39" s="11">
         <v>10</v>
       </c>
+      <c r="G39" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="53">
         <v>74621</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="54">
         <v>10</v>
+      </c>
+      <c r="G40" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2165,36 +2495,45 @@
       <c r="D41" s="8">
         <v>11</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="18" t="s">
         <v>104</v>
       </c>
+      <c r="G41" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="50">
         <v>48817</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="51">
         <v>11</v>
       </c>
+      <c r="G42" s="41">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="21">
         <v>62029</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="22">
         <v>11</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2210,8 +2549,11 @@
       <c r="D44" s="8">
         <v>12</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="18" t="s">
         <v>104</v>
+      </c>
+      <c r="G44" s="27">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2227,19 +2569,26 @@
       <c r="D45" s="11">
         <v>12</v>
       </c>
+      <c r="G45" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="32">
         <v>67750</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="33">
         <v>12</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="G46" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2255,62 +2604,76 @@
       <c r="D47" s="8">
         <v>13</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="19" t="s">
         <v>104</v>
       </c>
+      <c r="G47" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="29">
         <v>54363</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="30">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="E48" s="19"/>
+      <c r="G48" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="25">
         <v>49138</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="26">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="G49" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="59">
         <v>86932</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="60">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G50" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>